--- a/src/test/resources/testData/GasMileageCalculation.xlsx
+++ b/src/test/resources/testData/GasMileageCalculation.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jazgulomurbekova/Desktop/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jazgulomurbekova/Projects/chicago14cucumberjunit2 2/src/test/resources/testData/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02EE238-AB8E-9D4A-9A29-C10AAF325061}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DB7E3D8-C485-A249-BABD-DA017B02AFE4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11160" yWindow="1540" windowWidth="17260" windowHeight="14880" xr2:uid="{2738123A-355F-5843-A937-508FB4D092A1}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
